--- a/BusinessData.xlsx
+++ b/BusinessData.xlsx
@@ -56,7 +56,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -79,16 +79,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -392,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,6 +463,94 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>300</v>
+      </c>
+      <c r="B5" s="3">
+        <v>50</v>
+      </c>
+      <c r="C5" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>100</v>
+      </c>
+      <c r="B6" s="3">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1600</v>
+      </c>
+      <c r="B7" s="3">
+        <v>120</v>
+      </c>
+      <c r="C7" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="B8" s="3">
+        <v>300</v>
+      </c>
+      <c r="C8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4600</v>
+      </c>
+      <c r="B9" s="3">
+        <v>600</v>
+      </c>
+      <c r="C9" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>6100</v>
+      </c>
+      <c r="B10" s="3">
+        <v>100</v>
+      </c>
+      <c r="C10" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>7600</v>
+      </c>
+      <c r="B11" s="3">
+        <v>178</v>
+      </c>
+      <c r="C11" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>9100</v>
+      </c>
+      <c r="B12" s="3">
+        <v>246</v>
+      </c>
+      <c r="C12" s="3">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
